--- a/my doc/DeMura/Interpolation Eva.xlsx
+++ b/my doc/DeMura/Interpolation Eva.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="22896" windowHeight="9696" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="75" windowWidth="22890" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="8x8" sheetId="3" r:id="rId3"/>
     <sheet name="16x4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,11 +95,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bottom</t>
+    <t>R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R1</t>
+    <t>R0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneLevel0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneLevel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMuraValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,9 +204,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,34 +235,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -362,7 +416,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -371,7 +425,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -380,7 +434,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -459,31 +513,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -522,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -549,7 +603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -576,7 +630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -603,7 +657,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -638,331 +692,2604 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U24"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="D2">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="G2">
+        <v>102</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>7</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>8</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>9</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>11</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>12</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>13</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>14</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+      <c r="D3">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(2^16/G2,0)</f>
+        <v>643</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="C6" s="2"/>
-      <c r="E6">
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+      <c r="D7">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>11</v>
-      </c>
-      <c r="R8">
-        <v>12</v>
-      </c>
-      <c r="S8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="D8">
+        <v>-128</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="D9">
+        <v>-128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>205</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <v>13</v>
+      </c>
+      <c r="W9">
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="D10">
+        <v>-128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <f>ROUND(2^16/G9,0)</f>
+        <v>320</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E11">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E12">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="H13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>409</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="N16">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="O16">
         <v>6</v>
       </c>
-      <c r="M14">
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="N14">
+      <c r="Q16">
         <v>8</v>
       </c>
-      <c r="O14">
+      <c r="R16">
         <v>9</v>
       </c>
-      <c r="P14">
+      <c r="S16">
         <v>10</v>
       </c>
-      <c r="Q14">
+      <c r="T16">
         <v>11</v>
       </c>
-      <c r="R14">
+      <c r="U16">
         <v>12</v>
       </c>
-      <c r="S14">
+      <c r="V16">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E16">
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(2^16/G16,0)</f>
+        <v>160</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E17">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="H19">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E18">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="H20">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>307</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="M23">
         <v>4</v>
       </c>
-      <c r="K20">
+      <c r="N23">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="M20">
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="N20">
+      <c r="Q23">
         <v>8</v>
       </c>
-      <c r="O20">
+      <c r="R23">
         <v>9</v>
       </c>
-      <c r="P20">
+      <c r="S23">
         <v>10</v>
       </c>
-      <c r="Q20">
+      <c r="T23">
         <v>11</v>
       </c>
-      <c r="R20">
+      <c r="U23">
         <v>12</v>
       </c>
-      <c r="S20">
+      <c r="V23">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E22">
+      <c r="W23">
+        <v>14</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <f>ROUND(2^16/G23,0)</f>
+        <v>213</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E23">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="H26">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="H27">
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>11</v>
+      </c>
+      <c r="U30">
+        <v>12</v>
+      </c>
+      <c r="V30">
+        <v>13</v>
+      </c>
+      <c r="W30">
+        <v>14</v>
+      </c>
+      <c r="X30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>(I63*$D$7+I57*$D$8+I51*$D$9+I45*$D$10)/64</f>
+        <v>-128</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:X31" si="0">(J63*$D$7+J57*$D$8+J51*$D$9+J45*$D$10)/64</f>
+        <v>-128</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:X32" si="1">(I64*$D$7+I58*$D$8+I52*$D$9+I46*$D$10)/64</f>
+        <v>-128</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="33" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:X33" si="2">(I65*$D$7+I59*$D$8+I53*$D$9+I47*$D$10)/64</f>
+        <v>-128</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="34" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:X34" si="3">(I66*$D$7+I60*$D$8+I54*$D$9+I48*$D$10)/64</f>
+        <v>-128</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="36" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>7</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>11</v>
+      </c>
+      <c r="U37">
+        <v>12</v>
+      </c>
+      <c r="V37">
+        <v>13</v>
+      </c>
+      <c r="W37">
+        <v>14</v>
+      </c>
+      <c r="X37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>(I63*$D$2+I57*$D$3+I51*$D$4+I45*$D$5)/64</f>
+        <v>127</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:X38" si="4">(J63*$D$2+J57*$D$3+J51*$D$4+J45*$D$5)/64</f>
+        <v>127</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:X39" si="5">(I64*$D$2+I58*$D$3+I52*$D$4+I46*$D$5)/64</f>
+        <v>127</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:X40" si="6">(I65*$D$2+I59*$D$3+I53*$D$4+I47*$D$5)/64</f>
+        <v>127</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:X41" si="7">(I66*$D$2+I60*$D$3+I54*$D$4+I48*$D$5)/64</f>
+        <v>127</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>11</v>
+      </c>
+      <c r="U44">
+        <v>12</v>
+      </c>
+      <c r="V44">
+        <v>13</v>
+      </c>
+      <c r="W44">
+        <v>14</v>
+      </c>
+      <c r="X44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:X48" si="8">$H45*I$44</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="R50">
+        <v>9</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="U50">
+        <v>12</v>
+      </c>
+      <c r="V50">
+        <v>13</v>
+      </c>
+      <c r="W50">
+        <v>14</v>
+      </c>
+      <c r="X50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:X54" si="9">(4-$H51)*I$50</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>8</v>
+      </c>
+      <c r="R56">
+        <v>9</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>11</v>
+      </c>
+      <c r="U56">
+        <v>12</v>
+      </c>
+      <c r="V56">
+        <v>13</v>
+      </c>
+      <c r="W56">
+        <v>14</v>
+      </c>
+      <c r="X56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57:X60" si="10">$H57*(16-I$56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+      <c r="Q62">
+        <v>8</v>
+      </c>
+      <c r="R62">
+        <v>9</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>11</v>
+      </c>
+      <c r="U62">
+        <v>12</v>
+      </c>
+      <c r="V62">
+        <v>13</v>
+      </c>
+      <c r="W62">
+        <v>14</v>
+      </c>
+      <c r="X62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63:X66" si="11">(4-$H63)*(16-I$62)</f>
+        <v>64</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="H22:X22"/>
+    <mergeCell ref="H36:X36"/>
+    <mergeCell ref="H1:X1"/>
+    <mergeCell ref="H29:X29"/>
+    <mergeCell ref="H8:X8"/>
+    <mergeCell ref="H15:X15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="119" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,7 +3299,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,7 +3312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
